--- a/MECH0059/FEACoursework/m/data.xlsx
+++ b/MECH0059/FEACoursework/m/data.xlsx
@@ -1,22 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picku\Documents\GitHub\ME-Latex\MECH0059\FEACoursework\m\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD647F9D-44A3-4500-A310-BE4E5298EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve"> 0.0000       0.0000       0.0000       0.0000     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2  0.83820E-004 0.12415E-005  0.0000      0.83829E-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3   0.0000       0.0000       0.0000       0.0000     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       4  0.16284E-003 0.23855E-005  0.0000      0.16286E-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5  0.25660E-003 0.49055E-003  0.0000      0.55361E-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       6  0.51531E-003 0.52932E-003  0.0000      0.73873E-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       7  0.70884E-003 0.57265E-003  0.0000      0.91125E-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       8  0.62836E-003 0.76665E-004  0.0000      0.63302E-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       9  0.25164E-003 0.11628E-004  0.0000      0.25191E-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      10  0.15383E-003 0.22926E-004  0.0000      0.15553E-003</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -31,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -39,925 +98,1501 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.24609375" customWidth="true"/>
-    <col min="2" max="2" width="12.24609375" customWidth="true"/>
-    <col min="3" max="3" width="12.24609375" customWidth="true"/>
-    <col min="4" max="4" width="12.24609375" customWidth="true"/>
-    <col min="5" max="5" width="12.24609375" customWidth="true"/>
-    <col min="6" max="6" width="12.24609375" customWidth="true"/>
-    <col min="7" max="7" width="12.24609375" customWidth="true"/>
-    <col min="8" max="8" width="12.24609375" customWidth="true"/>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
+    <row r="1" spans="1:8">
+      <c r="A1">
         <v>-37714242.517026193</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>-13841281.029696105</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1">
         <v>20559852.896061618</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>-2489151.0879502702</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>17053480.437187091</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>14489151.087923272</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>100909.18377748132</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>1841281.0297231032</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>-13841281.029696105</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>-61096741.24003008</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>3710848.9120357824</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>55761875.574499123</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>14489151.087923272</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>26904791.091981556</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-4358718.9702629484</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-21569925.426450603</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>20559852.896061625</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3710848.9120357833</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>-40206345.898366995</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>16284676.677867135</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>-2260320.768204133</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>-4284676.6778941313</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>21906813.770509504</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-15710848.912008787</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>-2489151.0879502688</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>55761875.574499123</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>16284676.677867131</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>-67855756.461181492</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>1915323.3220919208</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>-25477576.871941864</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-15710848.912008785</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>37571457.758624226</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>17053480.437187094</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>14489151.087923272</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>-2260320.768204133</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1915323.3220919217</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>-35353012.565044582</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>-13915323.322064925</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>20559852.896061622</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-2489151.0879502692</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>14489151.087923272</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>26904791.09198156</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>-4284676.6778941294</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>-25477576.871941864</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>-13915323.322064925</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>-57189089.794538818</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>3710848.9120357824</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>55761875.574499123</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>100909.18377748132</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>-4358718.9702629494</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>21906813.770509504</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>-15710848.912008785</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>20559852.896061622</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>3710848.9120357838</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-42567575.850348607</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>16358718.970235953</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>1841281.0297231025</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>-21569925.426450603</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>-15710848.912008785</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>37571457.758624226</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>-2489151.0879502683</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>55761875.574499123</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>16358718.970235951</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-71763407.906672746</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.24609375" customWidth="true"/>
-    <col min="2" max="2" width="12.24609375" customWidth="true"/>
-    <col min="3" max="3" width="12.24609375" customWidth="true"/>
-    <col min="4" max="4" width="12.24609375" customWidth="true"/>
-    <col min="5" max="5" width="12.24609375" customWidth="true"/>
-    <col min="6" max="6" width="12.24609375" customWidth="true"/>
-    <col min="7" max="7" width="12.24609375" customWidth="true"/>
-    <col min="8" max="8" width="12.24609375" customWidth="true"/>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
+    <row r="1" spans="1:8">
+      <c r="A1">
         <v>-39739682.539593138</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>-15099999.999966031</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1">
         <v>22596825.39677456</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>19869841.269796565</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>15099999.999966029</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>-2726984.1269779946</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>3099999.9999930258</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>-15099999.999966027</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>-67422222.222070545</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>3099999.9999930263</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>59622222.222088084</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>15099999.999966029</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>33711111.111035272</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-3099999.9999930253</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-25911111.111052815</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>22596825.39677456</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3099999.9999930258</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>-39739682.539593138</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>15099999.999966029</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>-2726984.1269779932</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>19869841.269796565</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-15099999.999966029</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>-3099999.9999930267</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>59622222.222088084</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>15099999.999966029</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>-67422222.222070545</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>3099999.9999930263</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>-25911111.111052811</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-15099999.999966029</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>33711111.111035272</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>19869841.269796565</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>15099999.999966029</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>-2726984.1269779932</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>3099999.9999930263</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>-39739682.539593138</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>-15099999.999966029</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>22596825.396774564</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-3099999.9999930253</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>15099999.999966029</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>33711111.111035272</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>-25911111.111052811</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>-15099999.999966027</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>-67422222.222070545</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>3099999.9999930258</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>59622222.222088084</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>-2726984.1269779941</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>19869841.269796565</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>-15099999.999966029</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>22596825.396774564</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>3099999.9999930263</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-39739682.539593138</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>15099999.999966029</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>3099999.9999930267</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>-25911111.111052815</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>-15099999.999966029</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>33711111.111035272</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>-3099999.9999930258</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>59622222.222088084</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>15099999.999966025</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-67422222.222070545</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.24609375" customWidth="true"/>
-    <col min="2" max="2" width="12.24609375" customWidth="true"/>
-    <col min="3" max="3" width="12.24609375" customWidth="true"/>
-    <col min="4" max="4" width="12.24609375" customWidth="true"/>
-    <col min="5" max="5" width="12.24609375" customWidth="true"/>
-    <col min="6" max="6" width="12.24609375" customWidth="true"/>
-    <col min="7" max="7" width="12.24609375" customWidth="true"/>
-    <col min="8" max="8" width="12.24609375" customWidth="true"/>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
+    <row r="1" spans="1:8">
+      <c r="A1">
         <v>-39739682.539593138</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>-15099999.999966031</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1">
         <v>22596825.39677456</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>19869841.269796565</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>15099999.999966029</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>-2726984.1269779946</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>3099999.9999930258</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>-15099999.999966027</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>-67422222.222070545</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>3099999.9999930263</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>59622222.222088084</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>15099999.999966029</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>33711111.111035272</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-3099999.9999930253</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-25911111.111052815</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>22596825.39677456</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3099999.9999930258</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>-39739682.539593138</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>15099999.999966029</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>-2726984.1269779932</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>19869841.269796565</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-15099999.999966029</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>-3099999.9999930267</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>59622222.222088084</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>15099999.999966029</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>-67422222.222070545</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>3099999.9999930263</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>-25911111.111052811</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-15099999.999966029</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>33711111.111035272</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>19869841.269796565</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>15099999.999966029</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>-2726984.1269779932</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>3099999.9999930263</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>-39739682.539593138</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>-15099999.999966029</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>22596825.396774564</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-3099999.9999930253</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>15099999.999966029</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>33711111.111035272</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>-25911111.111052811</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>-15099999.999966027</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>-67422222.222070545</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>3099999.9999930258</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>59622222.222088084</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>-2726984.1269779941</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>-3099999.9999930263</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>19869841.269796565</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>-15099999.999966029</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>22596825.396774564</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>3099999.9999930263</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-39739682.539593138</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>15099999.999966029</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>3099999.9999930267</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>-25911111.111052815</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>-15099999.999966029</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>33711111.111035272</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>-3099999.9999930258</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>59622222.222088084</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>15099999.999966025</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-67422222.222070545</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.24609375" customWidth="true"/>
-    <col min="2" max="2" width="12.24609375" customWidth="true"/>
-    <col min="3" max="3" width="12.24609375" customWidth="true"/>
-    <col min="4" max="4" width="12.24609375" customWidth="true"/>
-    <col min="5" max="5" width="12.24609375" customWidth="true"/>
-    <col min="6" max="6" width="12.24609375" customWidth="true"/>
-    <col min="7" max="7" width="12.24609375" customWidth="true"/>
-    <col min="8" max="8" width="12.24609375" customWidth="true"/>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
+    <row r="1" spans="1:8">
+      <c r="A1">
         <v>-42567575.850348614</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>-16358718.970235953</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1">
         <v>20559852.896061622</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>-3710848.9120357838</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>21906813.770509504</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>15710848.912008787</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>100909.18377748132</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>4358718.9702629503</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>-16358718.970235953</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>-71763407.906672746</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>2489151.0879502683</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>55761875.574499123</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>15710848.912008785</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>37571457.758624226</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1841281.0297231025</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-21569925.426450603</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>20559852.896061625</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>2489151.0879502688</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>-35353012.565044582</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>13915323.322064923</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>-2260320.768204133</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>-1915323.3220919217</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>17053480.437187091</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-14489151.087923272</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>-3710848.9120357819</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>55761875.574499123</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>13915323.322064923</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>-57189089.794538818</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>4284676.6778941294</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>-25477576.871941861</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-14489151.087923272</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>26904791.09198156</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>21906813.770509504</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>15710848.912008785</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>-2260320.768204133</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>4284676.6778941313</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>-40206345.898367003</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>-16284676.677867133</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>20559852.896061625</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-3710848.9120357833</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>15710848.912008785</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>37571457.758624226</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>-1915323.3220919208</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>-25477576.871941864</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>-16284676.677867131</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>-67855756.461181492</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>2489151.0879502688</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>55761875.57449913</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>100909.18377748132</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>-1841281.0297231036</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>17053480.437187091</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>-14489151.08792327</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>20559852.896061622</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>2489151.0879502702</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-37714242.517026193</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>13841281.029696105</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>4358718.9702629494</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>-21569925.426450603</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>-14489151.087923272</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>26904791.091981556</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>-3710848.9120357824</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>55761875.574499123</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>13841281.029696105</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-61096741.24003008</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC1BE7F-F6A7-4979-835E-58ABC2E92275}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>-3.5555453337508E-4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.3819999999999994E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <f>(B3-A3)/A3</f>
+        <v>-1.2357444277375502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>1.6410585732909999E-4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.2415000000000001E-6</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C20" si="0">(B4-A4)/A4</f>
+        <v>-0.99243476119496277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>-1.5989399658801999E-4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.6284000000000001E-4</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0184247281001464</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>1.2595136638704E-5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.3854999999999999E-6</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.81060149894130407</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>5.8447635061121499E-5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.566E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3902546224780705</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>-6.1819830581248499E-5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.9054999999999997E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.9351560071857605</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>1.14544481809616E-4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.1531000000000005E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4987762994684899</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>-2.1426262525188601E-5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5.2932000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>-25.704261855175826</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>2.2623988742449101E-5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.0883999999999997E-4</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>30.331345151795119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>3.1840127255865202E-5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.7264999999999996E-4</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>16.985166811621749</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>-6.5331645110885801E-5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.2836000000000001E-4</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>-10.618003632596423</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>4.25993669230287E-5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.6664999999999999E-5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79967463221984714</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>-2.4997222867805902E-4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.5164000000000002E-4</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0066718264295229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>3.8445658905963999E-5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.1627999999999999E-5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.69754712675255592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>-2.9327437367041497E-4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.5383000000000001E-4</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.5245258836453124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>1.2812914581735501E-4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.2926E-5</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.82107115556143284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>